--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1761.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1761.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9739385033847509</v>
+        <v>0.2641203701496124</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>0.957653820514679</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.8103394276082</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.269687661269328</v>
+        <v>1.045553684234619</v>
       </c>
     </row>
   </sheetData>
